--- a/Centroids.xlsx
+++ b/Centroids.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Variable</t>
   </si>
@@ -70,19 +70,34 @@
     <t>gender_Male</t>
   </si>
   <si>
-    <t>age_80+</t>
-  </si>
-  <si>
-    <t>age_[0,20)</t>
-  </si>
-  <si>
-    <t>age_[20,40)</t>
-  </si>
-  <si>
-    <t>age_[40,60)</t>
-  </si>
-  <si>
-    <t>age_[60,80)</t>
+    <t>age_[0-10)</t>
+  </si>
+  <si>
+    <t>age_[10-20)</t>
+  </si>
+  <si>
+    <t>age_[20-30)</t>
+  </si>
+  <si>
+    <t>age_[30-40)</t>
+  </si>
+  <si>
+    <t>age_[40-50)</t>
+  </si>
+  <si>
+    <t>age_[50-60)</t>
+  </si>
+  <si>
+    <t>age_[60-70)</t>
+  </si>
+  <si>
+    <t>age_[70-80)</t>
+  </si>
+  <si>
+    <t>age_[80-90)</t>
+  </si>
+  <si>
+    <t>age_[90-100)</t>
   </si>
   <si>
     <t>admission_type_id_Elective</t>
@@ -785,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.8133421568039989</v>
+        <v>0.815789081673266</v>
       </c>
       <c r="C2">
-        <v>-0.4838599985914214</v>
+        <v>-0.4835260908544651</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,10 +833,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5852310173863009</v>
+        <v>0.586648692689322</v>
       </c>
       <c r="C3">
-        <v>-0.3481559106205685</v>
+        <v>-0.3477123627337066</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.4025329817198922</v>
+        <v>0.4020385020700047</v>
       </c>
       <c r="C4">
-        <v>-0.2394682315906494</v>
+        <v>-0.2382921145256984</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,10 +855,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.7853412839173545</v>
+        <v>0.7864579511950744</v>
       </c>
       <c r="C5">
-        <v>-0.467202184654063</v>
+        <v>-0.4661412457038703</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1113958354778685</v>
+        <v>0.1120616212639568</v>
       </c>
       <c r="C6">
-        <v>-0.06626975910016658</v>
+        <v>-0.06642000840883007</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,10 +877,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.09907623250230846</v>
+        <v>0.1010497682436165</v>
       </c>
       <c r="C7">
-        <v>-0.05894078564350269</v>
+        <v>-0.05989317645729621</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,10 +888,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.2401611218749073</v>
+        <v>0.2428108308241287</v>
       </c>
       <c r="C8">
-        <v>-0.1428726632697156</v>
+        <v>-0.143916331418296</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.5023936371035979</v>
+        <v>0.5018461215478336</v>
       </c>
       <c r="C9">
-        <v>-0.2988756730580658</v>
+        <v>-0.297449057377449</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.1775336547327388</v>
+        <v>0.1779508846052295</v>
       </c>
       <c r="C10">
-        <v>0.1954487752127522</v>
+        <v>0.1951857010940182</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,10 +921,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004952712136779123</v>
+        <v>0.004937945603379923</v>
       </c>
       <c r="C11">
-        <v>0.007099534533828544</v>
+        <v>0.007105629724696062</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.7869806896915092</v>
+        <v>0.7866120940058089</v>
       </c>
       <c r="C12">
-        <v>0.7600890184462527</v>
+        <v>0.7603493340428529</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,10 +943,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.01583287230959743</v>
+        <v>0.01587008185899155</v>
       </c>
       <c r="C13">
-        <v>0.02250536774962018</v>
+        <v>0.02247507551687986</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,10 +954,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.01470007112937653</v>
+        <v>0.01462899392659089</v>
       </c>
       <c r="C14">
-        <v>0.01485730405754844</v>
+        <v>0.01488425962155483</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,10 +965,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.5506730946547587</v>
+        <v>0.5505941378399791</v>
       </c>
       <c r="C15">
-        <v>0.5298478223392418</v>
+        <v>0.5299015541608627</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,10 +976,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.4493269053452413</v>
+        <v>0.4494058621600209</v>
       </c>
       <c r="C16">
-        <v>0.4701521776607582</v>
+        <v>0.4700984458391373</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,10 +987,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.2077768118232835</v>
+        <v>0.0001056245048850861</v>
       </c>
       <c r="C17">
-        <v>0.1896813829203685</v>
+        <v>0.002457233186734059</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,10 +998,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.001923127585025975</v>
+        <v>0.001795616583047259</v>
       </c>
       <c r="C18">
-        <v>0.01220869183631865</v>
+        <v>0.009750676912963791</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,10 +1009,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.03545931136225976</v>
+        <v>0.009321362556113183</v>
       </c>
       <c r="C19">
-        <v>0.06403686115943429</v>
+        <v>0.02040912150000813</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,10 +1020,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.2417081588029185</v>
+        <v>0.02640612622128361</v>
       </c>
       <c r="C20">
-        <v>0.2784334007240578</v>
+        <v>0.04343198785469466</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,10 +1031,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.5131325904265145</v>
+        <v>0.08199102191708443</v>
       </c>
       <c r="C21">
-        <v>0.4556396633598205</v>
+        <v>0.1029846775077078</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,10 +1042,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.1804051740035303</v>
+        <v>0.1617903353578029</v>
       </c>
       <c r="C22">
-        <v>0.1883962574639137</v>
+        <v>0.1741818352558185</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,10 +1053,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.730762138096367</v>
+        <v>0.2361235806707154</v>
       </c>
       <c r="C23">
-        <v>0.7010359364959955</v>
+        <v>0.211916798397321</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,10 +1064,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>2.634421349350257E-05</v>
+        <v>0.2742276208080276</v>
       </c>
       <c r="C24">
-        <v>0.0001410503549767249</v>
+        <v>0.245425946504312</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,10 +1075,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.08849021312468498</v>
+        <v>0.1820966464219705</v>
       </c>
       <c r="C25">
-        <v>0.1102857053301353</v>
+        <v>0.1612226691499851</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,10 +1086,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.0003161305619220696</v>
+        <v>0.02614206495907025</v>
       </c>
       <c r="C26">
-        <v>0.0001410503549767248</v>
+        <v>0.02821905373045527</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,10 +1097,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0.02357807107668789</v>
+        <v>0.1800633747029317</v>
       </c>
       <c r="C27">
-        <v>0.01186390207970894</v>
+        <v>0.1885809087067416</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,10 +1108,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.6350272662609663</v>
+        <v>0.7310536044362317</v>
       </c>
       <c r="C28">
-        <v>0.7861363173319492</v>
+        <v>0.7009062025574038</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,10 +1119,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.04299375642140282</v>
+        <v>2.640612622128138E-05</v>
       </c>
       <c r="C29">
-        <v>0.04776905355211841</v>
+        <v>0.0001408605011503653</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,10 +1130,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.2984009062409413</v>
+        <v>0.08853974121996294</v>
       </c>
       <c r="C30">
-        <v>0.1542307270362163</v>
+        <v>0.1102311677335523</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,10 +1141,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0.6003582813035125</v>
+        <v>0.0003168735146554048</v>
       </c>
       <c r="C31">
-        <v>0.5439058410519222</v>
+        <v>0.000140860501150361</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,10 +1152,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-1.727947212398773E-18</v>
+        <v>0.02355426458938452</v>
       </c>
       <c r="C32">
-        <v>7.836130832040926E-05</v>
+        <v>0.01189488676380798</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,10 +1163,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.05669274743802442</v>
+        <v>0.6348296804858751</v>
       </c>
       <c r="C33">
-        <v>0.07727992226558493</v>
+        <v>0.7860485499194021</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.2792486630311646</v>
+        <v>0.0430947979931367</v>
       </c>
       <c r="C34">
-        <v>0.3174573322676174</v>
+        <v>0.04770475638959164</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,10 +1185,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.06370030822729737</v>
+        <v>0.2985212569316132</v>
       </c>
       <c r="C35">
-        <v>0.06127854310655678</v>
+        <v>0.1543518069272106</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,10 +1196,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0.3218736004636588</v>
+        <v>0.6009770266701857</v>
       </c>
       <c r="C36">
-        <v>0.2855329352578869</v>
+        <v>0.5436119762728265</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,10 +1207,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>0.0803498511551938</v>
+        <v>-4.87890977618477E-19</v>
       </c>
       <c r="C37">
-        <v>0.08944159731690876</v>
+        <v>7.825583397243292E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,10 +1218,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.08843752469769997</v>
+        <v>0.05653551623976825</v>
       </c>
       <c r="C38">
-        <v>0.09588289686084554</v>
+        <v>0.07734806629833821</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,10 +1229,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.04886851603045417</v>
+        <v>0.2787694745180864</v>
       </c>
       <c r="C39">
-        <v>0.05112291754823176</v>
+        <v>0.3176873835944444</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,10 +1240,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.08029716272820624</v>
+        <v>0.0637179825719581</v>
       </c>
       <c r="C40">
-        <v>0.06152929929318059</v>
+        <v>0.06127431800040981</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,10 +1251,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0.04030664664506442</v>
+        <v>0.3212569316081345</v>
       </c>
       <c r="C41">
-        <v>0.05370884072280482</v>
+        <v>0.2859468173352337</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,10 +1262,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>0.0386206169814803</v>
+        <v>0.08038024821758637</v>
       </c>
       <c r="C42">
-        <v>0.03082733869324707</v>
+        <v>0.08941511589689002</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,10 +1273,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>0.161490028715193</v>
+        <v>0.08856614734618419</v>
       </c>
       <c r="C43">
-        <v>0.189054492453806</v>
+        <v>0.09580079194903966</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,10 +1284,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0.1397560525830503</v>
+        <v>0.04908898864536542</v>
       </c>
       <c r="C44">
-        <v>0.1428996818530883</v>
+        <v>0.0509915014164304</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,10 +1295,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.3284596538370358</v>
+        <v>0.08045946659625083</v>
       </c>
       <c r="C45">
-        <v>0.3042456156848001</v>
+        <v>0.06143082966835214</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,10 +1306,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>0.07352669986037673</v>
+        <v>0.04021653023501468</v>
       </c>
       <c r="C46">
-        <v>0.156769633425802</v>
+        <v>0.05374610677225985</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,10 +1317,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.04209805316262286</v>
+        <v>0.03871138104040169</v>
       </c>
       <c r="C47">
-        <v>0.04030905700001592</v>
+        <v>0.03078584508475135</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,10 +1328,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>0.1004768302642322</v>
+        <v>0.1614734618431483</v>
       </c>
       <c r="C48">
-        <v>0.07149685771153749</v>
+        <v>0.1890347925437847</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,10 +1339,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>0.03174477725967503</v>
+        <v>0.1398468444679173</v>
       </c>
       <c r="C49">
-        <v>0.01916717601517091</v>
+        <v>0.142848199333261</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,10 +1350,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>0.01691298506283094</v>
+        <v>0.3280168999207829</v>
       </c>
       <c r="C50">
-        <v>0.01758427758709862</v>
+        <v>0.3045404034870804</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,10 +1361,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0267920651228957</v>
+        <v>0.07364668603115815</v>
       </c>
       <c r="C51">
-        <v>0.02397856034604344</v>
+        <v>0.1565899237788185</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,10 +1372,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>0.2436049421744519</v>
+        <v>0.04227620808027457</v>
       </c>
       <c r="C52">
-        <v>0.2768348300343233</v>
+        <v>0.04020784749503065</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,10 +1383,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.1363839932558816</v>
+        <v>0.1005545286506473</v>
       </c>
       <c r="C53">
-        <v>0.08961399219521361</v>
+        <v>0.0714945299172057</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,10 +1394,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.3041966332095159</v>
+        <v>0.03174016371798236</v>
       </c>
       <c r="C54">
-        <v>0.2939959565564907</v>
+        <v>0.01915702815644879</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,10 +1405,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0.1220263969019229</v>
+        <v>0.01689992078162127</v>
       </c>
       <c r="C55">
-        <v>0.1962950773426134</v>
+        <v>0.01759191147700052</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,10 +1416,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>0.03946363181327227</v>
+        <v>0.02682862424082386</v>
       </c>
       <c r="C56">
-        <v>0.03811494036704444</v>
+        <v>0.02396193636235578</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,10 +1427,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>0.09094022497958279</v>
+        <v>0.243570108265118</v>
       </c>
       <c r="C57">
-        <v>0.05059006065165229</v>
+        <v>0.2768221870940485</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,10 +1438,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0.02818830843805129</v>
+        <v>0.1364668603115935</v>
       </c>
       <c r="C58">
-        <v>0.01372890121773437</v>
+        <v>0.08963423223201425</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,10 +1449,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>0.01875708000737632</v>
+        <v>0.3039345128069721</v>
       </c>
       <c r="C59">
-        <v>0.01885373078188913</v>
+        <v>0.2941636799023374</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,10 +1460,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>0.02207645090755824</v>
+        <v>0.1221547398996575</v>
       </c>
       <c r="C60">
-        <v>0.01595436237403422</v>
+        <v>0.1961247711016862</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,10 +1471,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0.2760346689849567</v>
+        <v>0.03955637707948233</v>
       </c>
       <c r="C61">
-        <v>0.3156393499145854</v>
+        <v>0.03806363764418623</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,10 +1482,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0.09831660475776535</v>
+        <v>0.09091629257987811</v>
       </c>
       <c r="C62">
-        <v>0.05682762079395702</v>
+        <v>0.05066282691374652</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,10 +1493,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0.01024789904897416</v>
+        <v>0.02809611829944546</v>
       </c>
       <c r="C63">
-        <v>0.01717679878383261</v>
+        <v>0.01378867794594078</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,10 +1504,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01459469427540255</v>
+        <v>0.01874834961711116</v>
       </c>
       <c r="C64">
-        <v>0.01112730578149709</v>
+        <v>0.0188596559873539</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,10 +1515,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>0.9646987539187025</v>
+        <v>0.02207552152099289</v>
       </c>
       <c r="C65">
-        <v>0.9372169197736913</v>
+        <v>0.01596419013037426</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,10 +1526,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01045865275692141</v>
+        <v>0.276287298653288</v>
       </c>
       <c r="C66">
-        <v>0.03447897566097627</v>
+        <v>0.3154336155760415</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,10 +1537,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0.05034379198609008</v>
+        <v>0.09823078954317337</v>
       </c>
       <c r="C67">
-        <v>0.0297929694234173</v>
+        <v>0.05693894479833407</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,10 +1548,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0.09989725756737455</v>
+        <v>0.01019276472141571</v>
       </c>
       <c r="C68">
-        <v>0.06933408560189333</v>
+        <v>0.01720063230713916</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1544,10 +1559,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>0.7856898232303258</v>
+        <v>0.01470821230525488</v>
       </c>
       <c r="C69">
-        <v>0.8607832996379695</v>
+        <v>0.01106537492370044</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1555,10 +1570,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>0.06406912721620778</v>
+        <v>0.9646157908634816</v>
       </c>
       <c r="C70">
-        <v>0.04008964533671926</v>
+        <v>0.9373014258212936</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1566,10 +1581,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>0.006981216575779097</v>
+        <v>0.01048323210984948</v>
       </c>
       <c r="C71">
-        <v>0.004858401115864998</v>
+        <v>0.03443256694786595</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1577,10 +1592,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>0.8069496035195866</v>
+        <v>0.05027726432532394</v>
       </c>
       <c r="C72">
-        <v>0.8015891673327377</v>
+        <v>0.02986242624387701</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1588,10 +1603,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>0.1727390078769192</v>
+        <v>0.1000264061262214</v>
       </c>
       <c r="C73">
-        <v>0.1847602927578464</v>
+        <v>0.06930336656597785</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1599,10 +1614,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>0.01333017202771401</v>
+        <v>0.785529442830735</v>
       </c>
       <c r="C74">
-        <v>0.008792138793549141</v>
+        <v>0.8607672201962644</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1610,10 +1625,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>0.0008166706182986929</v>
+        <v>0.06416688671771824</v>
       </c>
       <c r="C75">
-        <v>0.000219411663297116</v>
+        <v>0.04006698699388027</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1621,10 +1636,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>0.9782133354408704</v>
+        <v>0.006971217322418801</v>
       </c>
       <c r="C76">
-        <v>0.9888413496951747</v>
+        <v>0.004867512873084705</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1632,10 +1647,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>0.01896783371532466</v>
+        <v>0.8071824663321888</v>
       </c>
       <c r="C77">
-        <v>0.01040638174494995</v>
+        <v>0.8014649492119641</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1643,10 +1658,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>0.002002160225506474</v>
+        <v>0.1724584103512009</v>
       </c>
       <c r="C78">
-        <v>0.0005328568965787518</v>
+        <v>0.1849028845100399</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1654,10 +1669,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0001844094944545438</v>
+        <v>0.01338790599419073</v>
       </c>
       <c r="C79">
-        <v>6.268904665632371E-05</v>
+        <v>0.008764653404911364</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1665,10 +1680,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>0.9917542611765326</v>
+        <v>0.000844996039081081</v>
       </c>
       <c r="C80">
-        <v>0.9938878179510087</v>
+        <v>0.0002034651683283153</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1676,10 +1691,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>0.007666166126610229</v>
+        <v>0.9780829152363351</v>
       </c>
       <c r="C81">
-        <v>0.005908442647358431</v>
+        <v>0.9889033227427106</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1687,10 +1702,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0.0003951632024025942</v>
+        <v>0.01903881700554547</v>
       </c>
       <c r="C82">
-        <v>0.0001410503549767401</v>
+        <v>0.01037672358474349</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1698,10 +1713,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>-1.931235119739805E-19</v>
+        <v>0.002033271719038779</v>
       </c>
       <c r="C83">
-        <v>1.567226166408172E-05</v>
+        <v>0.00051648850421795</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1709,10 +1724,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>0.9993413946626624</v>
+        <v>0.0001848428835489851</v>
       </c>
       <c r="C84">
-        <v>0.9990439920384911</v>
+        <v>6.260466717794647E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1720,10 +1735,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0006059169103506622</v>
+        <v>0.9917612886189596</v>
       </c>
       <c r="C85">
-        <v>0.0008776466531885308</v>
+        <v>0.9938803937833566</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1731,10 +1746,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>5.268842698701109E-05</v>
+        <v>0.007657776604172179</v>
       </c>
       <c r="C86">
-        <v>6.268904665632097E-05</v>
+        <v>0.005916141048315162</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1742,10 +1757,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003029584551753242</v>
+        <v>0.0003960918933192504</v>
       </c>
       <c r="C87">
-        <v>0.001238108671462404</v>
+        <v>0.0001408605011503694</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1753,10 +1768,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.9404093890776892</v>
+        <v>2.710505431213761E-19</v>
       </c>
       <c r="C88">
-        <v>0.954095945585907</v>
+        <v>1.565116679448696E-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1764,10 +1779,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>0.05118680681788228</v>
+        <v>0.9993662529706893</v>
       </c>
       <c r="C89">
-        <v>0.04273825755794764</v>
+        <v>0.9990296276587419</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1775,10 +1790,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0.005374219552675322</v>
+        <v>0.0005809347768682417</v>
       </c>
       <c r="C90">
-        <v>0.001927688184682004</v>
+        <v>0.000892116507285602</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1786,10 +1801,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0.008746278879844143</v>
+        <v>5.281225244256567E-05</v>
       </c>
       <c r="C91">
-        <v>0.003573275659410526</v>
+        <v>6.260466717793917E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1797,10 +1812,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.860902552754287</v>
+        <v>0.003036704515447652</v>
       </c>
       <c r="C92">
-        <v>0.8839312301158173</v>
+        <v>0.001236442176764351</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1808,10 +1823,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>0.1184172396533102</v>
+        <v>0.9403749669923422</v>
       </c>
       <c r="C93">
-        <v>0.1075273872772584</v>
+        <v>0.9540951277917765</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1819,10 +1834,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0119339287125582</v>
+        <v>0.0512014787430681</v>
       </c>
       <c r="C94">
-        <v>0.004968106947513515</v>
+        <v>0.04274333651573687</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1830,10 +1845,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0.008430148317921963</v>
+        <v>0.005386849749141859</v>
       </c>
       <c r="C95">
-        <v>0.003824031846035839</v>
+        <v>0.001925093515721656</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1841,10 +1856,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>0.8885376327089761</v>
+        <v>0.008766833905465987</v>
       </c>
       <c r="C96">
-        <v>0.8993997523782672</v>
+        <v>0.003568466029142453</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1852,10 +1867,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0.09180958402486827</v>
+        <v>0.861024557697386</v>
       </c>
       <c r="C97">
-        <v>0.09072672277336324</v>
+        <v>0.883837040051336</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1863,10 +1878,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01122263494823368</v>
+        <v>0.1182466332189069</v>
       </c>
       <c r="C98">
-        <v>0.006049493002335366</v>
+        <v>0.1076330740456703</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1874,10 +1889,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9997102136515714</v>
+        <v>0.01196197517824125</v>
       </c>
       <c r="C99">
-        <v>0.999811932860031</v>
+        <v>0.004961419873851439</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1885,10 +1900,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>0.0002897863484285769</v>
+        <v>0.008449960390810644</v>
       </c>
       <c r="C100">
-        <v>0.0001880671399689738</v>
+        <v>0.003818884697854331</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1896,10 +1911,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>0.002133881292974033</v>
+        <v>0.8888038024821761</v>
       </c>
       <c r="C101">
-        <v>0.0005798736815710314</v>
+        <v>0.8992221370103148</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1907,10 +1922,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>0.916989383281962</v>
+        <v>0.09157644573541092</v>
       </c>
       <c r="C102">
-        <v>0.9345369630291342</v>
+        <v>0.09087067440877848</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1918,10 +1933,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>0.07687241497405101</v>
+        <v>0.01116979139160274</v>
       </c>
       <c r="C103">
-        <v>0.06359803783284017</v>
+        <v>0.006088303883054432</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1929,10 +1944,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>0.004004320451012915</v>
+        <v>0.9997095326115659</v>
       </c>
       <c r="C104">
-        <v>0.001285125456454587</v>
+        <v>0.9998121859984662</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1940,10 +1955,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>0.001185489607207791</v>
+        <v>0.0002904673884341065</v>
       </c>
       <c r="C105">
-        <v>0.0006582349898914108</v>
+        <v>0.0001878140015338036</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1951,10 +1966,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>0.9288442793540391</v>
+        <v>0.002138896223923993</v>
       </c>
       <c r="C106">
-        <v>0.9425768332628079</v>
+        <v>0.0005790931713959686</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1962,10 +1977,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>0.0670987117679599</v>
+        <v>0.9171111697913923</v>
       </c>
       <c r="C107">
-        <v>0.05568354569247853</v>
+        <v>0.9344529134646988</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1973,10 +1988,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>0.002871519270792147</v>
+        <v>0.07673620279904934</v>
       </c>
       <c r="C108">
-        <v>0.001081386054821565</v>
+        <v>0.06368459768675816</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1984,10 +1999,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>7.903264048051903E-05</v>
+        <v>0.004013731185635045</v>
       </c>
       <c r="C109">
-        <v>1.856696220381426E-18</v>
+        <v>0.001283395677147718</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1995,10 +2010,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>0.9961537448299481</v>
+        <v>0.001188275679957735</v>
       </c>
       <c r="C110">
-        <v>0.9974610936104189</v>
+        <v>0.0006573490053683449</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2006,10 +2021,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>0.003582813035116776</v>
+        <v>0.9290203327171899</v>
       </c>
       <c r="C111">
-        <v>0.002491889604588757</v>
+        <v>0.9424663108634743</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2017,10 +2032,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>0.0001844094944545389</v>
+        <v>0.06691312384473218</v>
       </c>
       <c r="C112">
-        <v>4.701678499223622E-05</v>
+        <v>0.0557964096223373</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2028,10 +2043,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>5.268842698701714E-05</v>
+        <v>0.002878267758119861</v>
       </c>
       <c r="C113">
-        <v>4.701678499224163E-05</v>
+        <v>0.001079930508819427</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2039,10 +2054,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>0.9996311810110909</v>
+        <v>7.921837866385456E-05</v>
       </c>
       <c r="C114">
-        <v>0.999623865720062</v>
+        <v>1.785545452812065E-18</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2050,10 +2065,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>0.0002897863484285583</v>
+        <v>0.9961447055716927</v>
       </c>
       <c r="C115">
-        <v>0.0003134452332816122</v>
+        <v>0.9974645109792936</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2061,10 +2076,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>2.634421349350665E-05</v>
+        <v>0.003591233166094508</v>
       </c>
       <c r="C116">
-        <v>1.567226166408198E-05</v>
+        <v>0.002488535520323039</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2072,10 +2087,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>0.9998155905055455</v>
+        <v>0.000184842883548976</v>
       </c>
       <c r="C117">
-        <v>0.9994984876267494</v>
+        <v>4.695350038345673E-05</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2083,10 +2098,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>0.0001844094944545646</v>
+        <v>5.281225244257116E-05</v>
       </c>
       <c r="C118">
-        <v>0.0004858401115865237</v>
+        <v>4.6953500383459E-05</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2094,10 +2109,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-1.931235119739805E-19</v>
+        <v>0.9996303142329021</v>
       </c>
       <c r="C119">
-        <v>1.567226166408146E-05</v>
+        <v>0.9996243719969323</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2105,10 +2120,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>0.1783239811375423</v>
+        <v>0.0002904673884341072</v>
       </c>
       <c r="C120">
-        <v>0.08539815380757541</v>
+        <v>0.0003130233358896724</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2116,10 +2131,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>0.3278800811401823</v>
+        <v>2.640612622128359E-05</v>
       </c>
       <c r="C121">
-        <v>0.5475418057579891</v>
+        <v>1.56511667944838E-05</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2127,10 +2142,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>0.3191601464738265</v>
+        <v>0.999815157116451</v>
       </c>
       <c r="C122">
-        <v>0.2936041500148867</v>
+        <v>0.9994991626625765</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2138,10 +2153,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>0.1746357912484519</v>
+        <v>0.0001848428835489815</v>
       </c>
       <c r="C123">
-        <v>0.07345589041954567</v>
+        <v>0.0004851861706290343</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2149,10 +2164,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>2.634421349350767E-05</v>
+        <v>2.710505431213761E-19</v>
       </c>
       <c r="C124">
-        <v>7.836130832040079E-05</v>
+        <v>1.565116679448564E-05</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2160,10 +2175,10 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>0.9931505044916884</v>
+        <v>0.1784790071296551</v>
       </c>
       <c r="C125">
-        <v>0.9930101712978199</v>
+        <v>0.08543971953109197</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2171,10 +2186,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>0.00682315129481824</v>
+        <v>0.3278056509110085</v>
       </c>
       <c r="C126">
-        <v>0.0067860893005472</v>
+        <v>0.5472586981359433</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2182,10 +2197,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>-1.544988095791844E-18</v>
+        <v>0.3187219434908896</v>
       </c>
       <c r="C127">
-        <v>0.000125378093312647</v>
+        <v>0.2939132612336249</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2193,10 +2208,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>0.999894623146026</v>
+        <v>0.1749933984684443</v>
       </c>
       <c r="C128">
-        <v>0.9998589496450233</v>
+        <v>0.07338832109933743</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2204,10 +2219,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>0.0001053768539740267</v>
+        <v>2.640612622128316E-05</v>
       </c>
       <c r="C129">
-        <v>0.0001410503549767267</v>
+        <v>7.825583397243031E-05</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2215,10 +2230,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>0.6038093732711669</v>
+        <v>0.9931608133086878</v>
       </c>
       <c r="C130">
-        <v>0.3775604557493726</v>
+        <v>0.9930039284428657</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2226,10 +2241,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0.396190626728833</v>
+        <v>0.006812780565091184</v>
       </c>
       <c r="C131">
-        <v>0.6224395442506274</v>
+        <v>0.006792606388806174</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2237,10 +2252,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>0.1464474828104033</v>
+        <v>2.168404344971009E-18</v>
       </c>
       <c r="C132">
-        <v>0.2796558371338573</v>
+        <v>0.0001252093343558696</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2248,10 +2263,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>0.8535525171895967</v>
+        <v>0.9998943754951148</v>
       </c>
       <c r="C133">
-        <v>0.7203441628661427</v>
+        <v>0.9998591394988496</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2259,10 +2274,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>0.1394399220211264</v>
+        <v>0.0001056245048851349</v>
       </c>
       <c r="C134">
-        <v>0.09503659473098393</v>
+        <v>0.0001408605011503723</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2270,10 +2285,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>0.3909481282436301</v>
+        <v>0.6036968576709828</v>
       </c>
       <c r="C135">
-        <v>0.3244941777547948</v>
+        <v>0.377928724586419</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2281,10 +2296,65 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>0.4696119497352428</v>
+        <v>0.3963031423290172</v>
       </c>
       <c r="C136">
-        <v>0.5804692275142206</v>
+        <v>0.622071275413581</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>0.1464747821494544</v>
+      </c>
+      <c r="C137">
+        <v>0.2794515831155182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>0.8535252178505456</v>
+      </c>
+      <c r="C138">
+        <v>0.7205484168844819</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>0.1396091893319251</v>
+      </c>
+      <c r="C139">
+        <v>0.09500258244252141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>0.391365196725639</v>
+      </c>
+      <c r="C140">
+        <v>0.324354780648898</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>0.4690256139424371</v>
+      </c>
+      <c r="C141">
+        <v>0.5806426369085798</v>
       </c>
     </row>
   </sheetData>

--- a/Centroids.xlsx
+++ b/Centroids.xlsx
@@ -822,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.815789081673266</v>
+        <v>0.8075017047589906</v>
       </c>
       <c r="C2">
-        <v>-0.4835260908544651</v>
+        <v>-0.4850065290580642</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -833,10 +833,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.586648692689322</v>
+        <v>0.5840284632357549</v>
       </c>
       <c r="C3">
-        <v>-0.3477123627337066</v>
+        <v>-0.3507826870899952</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -844,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.4020385020700047</v>
+        <v>0.3956665175090338</v>
       </c>
       <c r="C4">
-        <v>-0.2382921145256984</v>
+        <v>-0.237647602711662</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -855,10 +855,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.7864579511950744</v>
+        <v>0.7807362981884873</v>
       </c>
       <c r="C5">
-        <v>-0.4661412457038703</v>
+        <v>-0.4689305296353319</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -866,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1120616212639568</v>
+        <v>0.1130618566597557</v>
       </c>
       <c r="C6">
-        <v>-0.06642000840883007</v>
+        <v>-0.06790789213723146</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -877,10 +877,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1010497682436165</v>
+        <v>0.1016624683485988</v>
       </c>
       <c r="C7">
-        <v>-0.05989317645729621</v>
+        <v>-0.06106112299038738</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -888,10 +888,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.2428108308241287</v>
+        <v>0.24279543199339</v>
       </c>
       <c r="C8">
-        <v>-0.143916331418296</v>
+        <v>-0.1458292521839505</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -899,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.5018461215478336</v>
+        <v>0.5021008948886918</v>
       </c>
       <c r="C9">
-        <v>-0.297449057377449</v>
+        <v>-0.3015748583956539</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -910,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.1779508846052295</v>
+        <v>0.1776567328340241</v>
       </c>
       <c r="C10">
-        <v>0.1951857010940182</v>
+        <v>0.195448039385314</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -921,10 +921,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004937945603379923</v>
+        <v>0.004975645524537733</v>
       </c>
       <c r="C11">
-        <v>0.007105629724696062</v>
+        <v>0.007093760322129166</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -932,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.7866120940058089</v>
+        <v>0.7867543078615196</v>
       </c>
       <c r="C12">
-        <v>0.7603493340428529</v>
+        <v>0.7601333815688063</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -943,10 +943,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.01587008185899155</v>
+        <v>0.01586969046247343</v>
       </c>
       <c r="C13">
-        <v>0.02247507551687986</v>
+        <v>0.02250813973606814</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -954,10 +954,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.01462899392659089</v>
+        <v>0.01474362331744611</v>
       </c>
       <c r="C14">
-        <v>0.01488425962155483</v>
+        <v>0.01481667898768427</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -965,10 +965,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.5505941378399791</v>
+        <v>0.5505158958780708</v>
       </c>
       <c r="C15">
-        <v>0.5299015541608627</v>
+        <v>0.5298456989162748</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -976,10 +976,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.4494058621600209</v>
+        <v>0.4494841041219292</v>
       </c>
       <c r="C16">
-        <v>0.4700984458391373</v>
+        <v>0.4701543010837253</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -987,10 +987,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.0001056245048850861</v>
+        <v>0.000104750432095487</v>
       </c>
       <c r="C17">
-        <v>0.002457233186734059</v>
+        <v>0.002469446497947359</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -998,10 +998,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.001795616583047259</v>
+        <v>0.001833132561671805</v>
       </c>
       <c r="C18">
-        <v>0.009750676912963791</v>
+        <v>0.009767683281689846</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1009,10 +1009,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.009321362556113183</v>
+        <v>0.009375163672550325</v>
       </c>
       <c r="C19">
-        <v>0.02040912150000813</v>
+        <v>0.02043191720276232</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1020,10 +1020,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.02640612622128361</v>
+        <v>0.02647567171214609</v>
       </c>
       <c r="C20">
-        <v>0.04343198785469466</v>
+        <v>0.04347484153074234</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1031,10 +1031,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.08199102191708443</v>
+        <v>0.08196721311475373</v>
       </c>
       <c r="C21">
-        <v>0.1029846775077078</v>
+        <v>0.1031033235289487</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1042,10 +1042,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.1617903353578029</v>
+        <v>0.1618656051956214</v>
       </c>
       <c r="C22">
-        <v>0.1741818352558185</v>
+        <v>0.1741982163360966</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1053,10 +1053,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.2361235806707154</v>
+        <v>0.2359765359032104</v>
       </c>
       <c r="C23">
-        <v>0.211916798397321</v>
+        <v>0.2118848011073192</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1064,10 +1064,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.2742276208080276</v>
+        <v>0.274000942753889</v>
       </c>
       <c r="C24">
-        <v>0.245425946504312</v>
+        <v>0.245418940811929</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1075,10 +1075,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.1820966464219705</v>
+        <v>0.1821871890221554</v>
       </c>
       <c r="C25">
-        <v>0.1612226691499851</v>
+        <v>0.1610645359170768</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1086,10 +1086,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.02614206495907025</v>
+        <v>0.02621379563190672</v>
       </c>
       <c r="C26">
-        <v>0.02821905373045527</v>
+        <v>0.02818629378548812</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1097,10 +1097,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0.1800633747029317</v>
+        <v>0.179777929083958</v>
       </c>
       <c r="C27">
-        <v>0.1885809087067416</v>
+        <v>0.188794689903579</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1108,10 +1108,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.7310536044362317</v>
+        <v>0.7312103912428665</v>
       </c>
       <c r="C28">
-        <v>0.7009062025574038</v>
+        <v>0.7006621891564591</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1119,10 +1119,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>2.640612622128138E-05</v>
+        <v>2.618760802388124E-05</v>
       </c>
       <c r="C29">
-        <v>0.0001408605011503653</v>
+        <v>0.0001415606272708729</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1130,10 +1130,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.08853974121996294</v>
+        <v>0.08867124076886805</v>
       </c>
       <c r="C30">
-        <v>0.1102311677335523</v>
+        <v>0.1102599996854186</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1141,10 +1141,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0003168735146554048</v>
+        <v>0.000314251296286602</v>
       </c>
       <c r="C31">
-        <v>0.000140860501150361</v>
+        <v>0.0001415606272708687</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1152,10 +1152,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.02355426458938452</v>
+        <v>0.02349028439742293</v>
       </c>
       <c r="C32">
-        <v>0.01189488676380798</v>
+        <v>0.01187536373216703</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1163,10 +1163,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.6348296804858751</v>
+        <v>0.6357041847797645</v>
       </c>
       <c r="C33">
-        <v>0.7860485499194021</v>
+        <v>0.7862749107381656</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.0430947979931367</v>
+        <v>0.04284292672707504</v>
       </c>
       <c r="C34">
-        <v>0.04770475638959164</v>
+        <v>0.04787894993472761</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1185,10 +1185,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.2985212569316132</v>
+        <v>0.297962604095747</v>
       </c>
       <c r="C35">
-        <v>0.1543518069272106</v>
+        <v>0.153970775594952</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1196,10 +1196,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0.6009770266701857</v>
+        <v>0.6013984182684735</v>
       </c>
       <c r="C36">
-        <v>0.5436119762728265</v>
+        <v>0.5430737530868036</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1207,10 +1207,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-4.87890977618477E-19</v>
+        <v>-4.404571325722362E-19</v>
       </c>
       <c r="C37">
-        <v>7.825583397243292E-05</v>
+        <v>7.864479292827043E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1218,10 +1218,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.05653551623976825</v>
+        <v>0.05672235897973135</v>
       </c>
       <c r="C38">
-        <v>0.07734806629833821</v>
+        <v>0.07733928936564677</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1229,10 +1229,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.2787694745180864</v>
+        <v>0.2785052113339949</v>
       </c>
       <c r="C39">
-        <v>0.3176873835944444</v>
+        <v>0.3180395426018818</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1240,10 +1240,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.0637179825719581</v>
+        <v>0.06337401141779851</v>
       </c>
       <c r="C40">
-        <v>0.06127431800040981</v>
+        <v>0.06146877015273105</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1251,10 +1251,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0.3212569316081345</v>
+        <v>0.3207981982925693</v>
       </c>
       <c r="C41">
-        <v>0.2859468173352337</v>
+        <v>0.2860468408386695</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1262,10 +1262,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>0.08038024821758637</v>
+        <v>0.080395956633321</v>
       </c>
       <c r="C42">
-        <v>0.08941511589689002</v>
+        <v>0.0894505874766031</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1273,10 +1273,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>0.08856614734618419</v>
+        <v>0.08861886555282027</v>
       </c>
       <c r="C43">
-        <v>0.09580079194903966</v>
+        <v>0.09580508674520646</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1284,10 +1284,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0.04908898864536542</v>
+        <v>0.04910176504478051</v>
       </c>
       <c r="C44">
-        <v>0.0509915014164304</v>
+        <v>0.05099328373468374</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1295,10 +1295,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.08045946659625083</v>
+        <v>0.0804221442413455</v>
       </c>
       <c r="C45">
-        <v>0.06143082966835214</v>
+        <v>0.06135866744262897</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1306,10 +1306,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>0.04021653023501468</v>
+        <v>0.04025035353270849</v>
       </c>
       <c r="C46">
-        <v>0.05374610677225985</v>
+        <v>0.05379303836292997</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1317,10 +1317,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.03871138104040169</v>
+        <v>0.03857434661918011</v>
       </c>
       <c r="C47">
-        <v>0.03078584508475135</v>
+        <v>0.03082875882787828</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1328,10 +1328,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>0.1614734618431483</v>
+        <v>0.1619179804116698</v>
       </c>
       <c r="C48">
-        <v>0.1890347925437847</v>
+        <v>0.1889047926136816</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1339,10 +1339,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>0.1398468444679173</v>
+        <v>0.1399203896716081</v>
       </c>
       <c r="C49">
-        <v>0.142848199333261</v>
+        <v>0.1428189439577212</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1350,10 +1350,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>0.3280168999207829</v>
+        <v>0.3276593515948266</v>
       </c>
       <c r="C50">
-        <v>0.3045404034870804</v>
+        <v>0.3046384698869092</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1361,10 +1361,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>0.07364668603115815</v>
+        <v>0.07387524223537312</v>
       </c>
       <c r="C51">
-        <v>0.1565899237788185</v>
+        <v>0.1568649039747086</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1372,10 +1372,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>0.04227620808027457</v>
+        <v>0.04208348609438008</v>
       </c>
       <c r="C52">
-        <v>0.04020784749503065</v>
+        <v>0.04031332085502608</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1383,10 +1383,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.1005545286506473</v>
+        <v>0.1005866024197353</v>
       </c>
       <c r="C53">
-        <v>0.0714945299172057</v>
+        <v>0.07133082718593239</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1394,10 +1394,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.03174016371798236</v>
+        <v>0.03163463049285057</v>
       </c>
       <c r="C54">
-        <v>0.01915702815644879</v>
+        <v>0.01915787155732392</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1405,10 +1405,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0.01689992078162127</v>
+        <v>0.01696956999947618</v>
       </c>
       <c r="C55">
-        <v>0.01759191147700052</v>
+        <v>0.01755351778158759</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1416,10 +1416,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>0.02682862424082386</v>
+        <v>0.02676373540040852</v>
       </c>
       <c r="C56">
-        <v>0.02396193636235578</v>
+        <v>0.02398666184311934</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1427,10 +1427,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>0.243570108265118</v>
+        <v>0.2440423191745672</v>
       </c>
       <c r="C57">
-        <v>0.2768221870940485</v>
+        <v>0.2767038394387914</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1438,10 +1438,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0.1364668603115935</v>
+        <v>0.1363850625883844</v>
       </c>
       <c r="C58">
-        <v>0.08963423223201425</v>
+        <v>0.08945058747660453</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1449,10 +1449,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>0.3039345128069721</v>
+        <v>0.3037238778609971</v>
       </c>
       <c r="C59">
-        <v>0.2941636799023374</v>
+        <v>0.2942416282617934</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1460,10 +1460,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>0.1221547398996575</v>
+        <v>0.1221913790394393</v>
       </c>
       <c r="C60">
-        <v>0.1961247711016862</v>
+        <v>0.1964704216933803</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1471,10 +1471,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0.03955637707948233</v>
+        <v>0.03946472529199171</v>
       </c>
       <c r="C61">
-        <v>0.03806363764418623</v>
+        <v>0.03811126665303476</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1482,10 +1482,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0.09091629257987811</v>
+        <v>0.0907400618027545</v>
       </c>
       <c r="C62">
-        <v>0.05066282691374652</v>
+        <v>0.05056860185287143</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1493,10 +1493,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0.02809611829944546</v>
+        <v>0.02802074058555491</v>
       </c>
       <c r="C63">
-        <v>0.01378867794594078</v>
+        <v>0.01376283876244546</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1504,10 +1504,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01874834961711116</v>
+        <v>0.01872413973707641</v>
       </c>
       <c r="C64">
-        <v>0.0188596559873539</v>
+        <v>0.01887475030278249</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1515,10 +1515,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>0.02207552152099289</v>
+        <v>0.02207615356413348</v>
       </c>
       <c r="C65">
-        <v>0.01596419013037426</v>
+        <v>0.01593343504726556</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1526,10 +1526,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>0.276287298653288</v>
+        <v>0.2768030168124448</v>
       </c>
       <c r="C66">
-        <v>0.3154336155760415</v>
+        <v>0.3153184327665668</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1537,10 +1537,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0.09823078954317337</v>
+        <v>0.09825590530560872</v>
       </c>
       <c r="C67">
-        <v>0.05693894479833407</v>
+        <v>0.05671862465986062</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1548,10 +1548,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0.01019276472141571</v>
+        <v>0.01026554234536252</v>
       </c>
       <c r="C68">
-        <v>0.01720063230713916</v>
+        <v>0.01719175173411835</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1559,10 +1559,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>0.01470821230525488</v>
+        <v>0.01474362331744625</v>
       </c>
       <c r="C69">
-        <v>0.01106537492370044</v>
+        <v>0.01102599996854196</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1570,10 +1570,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>0.9646157908634816</v>
+        <v>0.9645157911276397</v>
       </c>
       <c r="C70">
-        <v>0.9373014258212936</v>
+        <v>0.9372257262846614</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1581,10 +1581,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>0.01048323210984948</v>
+        <v>0.01047504320955323</v>
       </c>
       <c r="C71">
-        <v>0.03443256694786595</v>
+        <v>0.03455652201267753</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1592,10 +1592,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>0.05027726432532394</v>
+        <v>0.0501492693657366</v>
       </c>
       <c r="C72">
-        <v>0.02986242624387701</v>
+        <v>0.02983783443698246</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1603,10 +1603,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>0.1000264061262214</v>
+        <v>0.09998428743518578</v>
       </c>
       <c r="C73">
-        <v>0.06930336656597785</v>
+        <v>0.06917595985969807</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1614,10 +1614,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>0.785529442830735</v>
+        <v>0.7857591787566106</v>
       </c>
       <c r="C74">
-        <v>0.8607672201962644</v>
+        <v>0.8610031929785917</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1625,10 +1625,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>0.06416688671771824</v>
+        <v>0.06410726444246552</v>
       </c>
       <c r="C75">
-        <v>0.04006698699388027</v>
+        <v>0.03998301272472737</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1636,10 +1636,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>0.006971217322418801</v>
+        <v>0.007018278950400661</v>
       </c>
       <c r="C76">
-        <v>0.004867512873084705</v>
+        <v>0.004828790285795196</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1647,10 +1647,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>0.8071824663321888</v>
+        <v>0.8067092651757186</v>
       </c>
       <c r="C77">
-        <v>0.8014649492119641</v>
+        <v>0.8017207480692706</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1658,10 +1658,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>0.1724584103512009</v>
+        <v>0.1728905881736756</v>
       </c>
       <c r="C78">
-        <v>0.1849028845100399</v>
+        <v>0.1847051606713116</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1669,10 +1669,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0.01338790599419073</v>
+        <v>0.01338186770020434</v>
       </c>
       <c r="C79">
-        <v>0.008764653404911364</v>
+        <v>0.008745300973622559</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1680,10 +1680,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>0.000844996039081081</v>
+        <v>0.0008380034567642732</v>
       </c>
       <c r="C80">
-        <v>0.0002034651683283153</v>
+        <v>0.0002044764616134928</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1691,10 +1691,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>0.9780829152363351</v>
+        <v>0.97808097208401</v>
       </c>
       <c r="C81">
-        <v>0.9889033227427106</v>
+        <v>0.9889582710728725</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1702,10 +1702,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0.01903881700554547</v>
+        <v>0.01906457864138709</v>
       </c>
       <c r="C82">
-        <v>0.01037672358474349</v>
+        <v>0.01031819683218801</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1713,10 +1713,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>0.002033271719038779</v>
+        <v>0.002016445817838961</v>
       </c>
       <c r="C83">
-        <v>0.00051648850421795</v>
+        <v>0.0005190556333264785</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1724,10 +1724,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0001848428835489851</v>
+        <v>0.0001833132561671835</v>
       </c>
       <c r="C84">
-        <v>6.260466717794647E-05</v>
+        <v>6.291583434261646E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1735,10 +1735,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>0.9917612886189596</v>
+        <v>0.9917509034724769</v>
       </c>
       <c r="C85">
-        <v>0.9938803937833566</v>
+        <v>0.993897164068767</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1746,10 +1746,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0.007657776604172179</v>
+        <v>0.007672969150997759</v>
       </c>
       <c r="C86">
-        <v>0.005916141048315162</v>
+        <v>0.005898359469619527</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1757,10 +1757,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0003960918933192504</v>
+        <v>0.0003928141203582468</v>
       </c>
       <c r="C87">
-        <v>0.0001408605011503694</v>
+        <v>0.0001415606272708769</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1768,10 +1768,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>2.710505431213761E-19</v>
+        <v>2.744386749103933E-19</v>
       </c>
       <c r="C88">
-        <v>1.565116679448696E-05</v>
+        <v>1.57289585856545E-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1779,10 +1779,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>0.9993662529706893</v>
+        <v>0.9993453097994029</v>
       </c>
       <c r="C89">
-        <v>0.9990296276587419</v>
+        <v>0.9990405335262752</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1790,10 +1790,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0005809347768682417</v>
+        <v>0.0006023149845493201</v>
       </c>
       <c r="C90">
-        <v>0.000892116507285602</v>
+        <v>0.0008808216807964959</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1801,10 +1801,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>5.281225244256567E-05</v>
+        <v>5.237521604776526E-05</v>
       </c>
       <c r="C91">
-        <v>6.260466717793917E-05</v>
+        <v>6.291583434260922E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1812,10 +1812,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.003036704515447652</v>
+        <v>0.003011574922746624</v>
       </c>
       <c r="C92">
-        <v>0.001236442176764351</v>
+        <v>0.001242587728266584</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1823,10 +1823,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>0.9403749669923422</v>
+        <v>0.9403446289215942</v>
       </c>
       <c r="C93">
-        <v>0.9540951277917765</v>
+        <v>0.9541815436399952</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1834,10 +1834,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0512014787430681</v>
+        <v>0.0512753365107628</v>
       </c>
       <c r="C94">
-        <v>0.04274333651573687</v>
+        <v>0.04265693568428795</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1845,10 +1845,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0.005386849749141859</v>
+        <v>0.005368459644896101</v>
       </c>
       <c r="C95">
-        <v>0.001925093515721656</v>
+        <v>0.00191893294744961</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1856,10 +1856,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>0.008766833905465987</v>
+        <v>0.008746661079976873</v>
       </c>
       <c r="C96">
-        <v>0.003568466029142453</v>
+        <v>0.003554744640357342</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1867,10 +1867,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0.861024557697386</v>
+        <v>0.8611009270413242</v>
       </c>
       <c r="C97">
-        <v>0.883837040051336</v>
+        <v>0.8839045566793025</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1878,10 +1878,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>0.1182466332189069</v>
+        <v>0.1182370502278323</v>
       </c>
       <c r="C98">
-        <v>0.1076330740456703</v>
+        <v>0.1075860767258602</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1889,10 +1889,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>0.01196197517824125</v>
+        <v>0.0119153616508667</v>
       </c>
       <c r="C99">
-        <v>0.004961419873851439</v>
+        <v>0.004954621954480241</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1900,10 +1900,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>0.008449960390810644</v>
+        <v>0.008380034567642568</v>
       </c>
       <c r="C100">
-        <v>0.003818884697854331</v>
+        <v>0.003837865894899204</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1911,10 +1911,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>0.8888038024821761</v>
+        <v>0.8887288535065209</v>
       </c>
       <c r="C101">
-        <v>0.8992221370103148</v>
+        <v>0.899318936093242</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1922,10 +1922,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>0.09157644573541092</v>
+        <v>0.0917351909076628</v>
       </c>
       <c r="C102">
-        <v>0.09087067440877848</v>
+        <v>0.09077181999779926</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1933,10 +1933,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>0.01116979139160274</v>
+        <v>0.01115592101817408</v>
       </c>
       <c r="C103">
-        <v>0.006088303883054432</v>
+        <v>0.006071378014061645</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1944,10 +1944,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>0.9997095326115659</v>
+        <v>0.9997119363117373</v>
       </c>
       <c r="C104">
-        <v>0.9998121859984662</v>
+        <v>0.9998112524969722</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1955,10 +1955,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>0.0002904673884341065</v>
+        <v>0.0002880636882627039</v>
       </c>
       <c r="C105">
-        <v>0.0001878140015338036</v>
+        <v>0.0001887475030278138</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1966,10 +1966,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>0.002138896223923993</v>
+        <v>0.002147383857958457</v>
       </c>
       <c r="C106">
-        <v>0.0005790931713959686</v>
+        <v>0.0005662425090835156</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1977,10 +1977,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>0.9171111697913923</v>
+        <v>0.9169590949562674</v>
       </c>
       <c r="C107">
-        <v>0.9344529134646988</v>
+        <v>0.9346304481180301</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1988,10 +1988,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>0.07673620279904934</v>
+        <v>0.07688681715812078</v>
       </c>
       <c r="C108">
-        <v>0.06368459768675816</v>
+        <v>0.06352926372744923</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1999,10 +1999,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>0.004013731185635045</v>
+        <v>0.004006704027654092</v>
       </c>
       <c r="C109">
-        <v>0.001283395677147718</v>
+        <v>0.0012740456454378</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2010,10 +2010,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>0.001188275679957735</v>
+        <v>0.001178442361074725</v>
       </c>
       <c r="C110">
-        <v>0.0006573490053683449</v>
+        <v>0.0006606162605973809</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2021,10 +2021,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>0.9290203327171899</v>
+        <v>0.9287173309589897</v>
       </c>
       <c r="C111">
-        <v>0.9424663108634743</v>
+        <v>0.9427151328310548</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2032,10 +2032,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>0.06691312384473218</v>
+        <v>0.06722358979730812</v>
       </c>
       <c r="C112">
-        <v>0.0557964096223373</v>
+        <v>0.05555468172452302</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2043,10 +2043,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>0.002878267758119861</v>
+        <v>0.002880636882627121</v>
       </c>
       <c r="C113">
-        <v>0.001079930508819427</v>
+        <v>0.001069569183824331</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>7.921837866385456E-05</v>
+        <v>7.856282407165385E-05</v>
       </c>
       <c r="C114">
         <v>1.785545452812065E-18</v>
@@ -2065,10 +2065,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>0.9961447055716927</v>
+        <v>0.9961766092285131</v>
       </c>
       <c r="C115">
-        <v>0.9974645109792936</v>
+        <v>0.9974519087091245</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2076,10 +2076,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>0.003591233166094508</v>
+        <v>0.003561514691248076</v>
       </c>
       <c r="C116">
-        <v>0.002488535520323039</v>
+        <v>0.002500904415118674</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2087,10 +2087,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>0.000184842883548976</v>
+        <v>0.0001833132561671744</v>
       </c>
       <c r="C117">
-        <v>4.695350038345673E-05</v>
+        <v>4.718687575695918E-05</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2098,10 +2098,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>5.281225244257116E-05</v>
+        <v>5.237521604777072E-05</v>
       </c>
       <c r="C118">
-        <v>4.6953500383459E-05</v>
+        <v>4.718687575696151E-05</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2109,10 +2109,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>0.9996303142329021</v>
+        <v>0.9996333734876657</v>
       </c>
       <c r="C119">
-        <v>0.9996243719969323</v>
+        <v>0.9996225049939443</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2120,10 +2120,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>0.0002904673884341072</v>
+        <v>0.0002880636882627045</v>
       </c>
       <c r="C120">
-        <v>0.0003130233358896724</v>
+        <v>0.0003145791717130227</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2131,10 +2131,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>2.640612622128359E-05</v>
+        <v>2.618760802388335E-05</v>
       </c>
       <c r="C121">
-        <v>1.56511667944838E-05</v>
+        <v>1.572895858565134E-05</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2142,10 +2142,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>0.999815157116451</v>
+        <v>0.9998166867438328</v>
       </c>
       <c r="C122">
-        <v>0.9994991626625765</v>
+        <v>0.9994966733252592</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2153,10 +2153,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>0.0001848428835489815</v>
+        <v>0.0001833132561671798</v>
       </c>
       <c r="C123">
-        <v>0.0004851861706290343</v>
+        <v>0.0004875977161552273</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2164,10 +2164,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>2.710505431213761E-19</v>
+        <v>2.744386749103933E-19</v>
       </c>
       <c r="C124">
-        <v>1.565116679448564E-05</v>
+        <v>1.572895858565317E-05</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2175,10 +2175,10 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>0.1784790071296551</v>
+        <v>0.1784161734667165</v>
       </c>
       <c r="C125">
-        <v>0.08543971953109197</v>
+        <v>0.08501502115545023</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2186,10 +2186,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>0.3278056509110085</v>
+        <v>0.3272403498664404</v>
       </c>
       <c r="C126">
-        <v>0.5472586981359433</v>
+        <v>0.5486889913018831</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2197,10 +2197,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>0.3187219434908896</v>
+        <v>0.3192007542031108</v>
       </c>
       <c r="C127">
-        <v>0.2939132612336249</v>
+        <v>0.2935023672082671</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2208,10 +2208,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>0.1749933984684443</v>
+        <v>0.1751427224637297</v>
       </c>
       <c r="C128">
-        <v>0.07338832109933743</v>
+        <v>0.07279362033439715</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2219,10 +2219,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>2.640612622128316E-05</v>
+        <v>2.618760802388299E-05</v>
       </c>
       <c r="C129">
-        <v>7.825583397243031E-05</v>
+        <v>7.864479292826789E-05</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2230,10 +2230,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>0.9931608133086878</v>
+        <v>0.9931650343057667</v>
       </c>
       <c r="C130">
-        <v>0.9930039284428657</v>
+        <v>0.9930006134293852</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2241,10 +2241,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0.006812780565091184</v>
+        <v>0.006808778086209677</v>
       </c>
       <c r="C131">
-        <v>0.006792606388806174</v>
+        <v>0.006794910109001578</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2252,10 +2252,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>2.168404344971009E-18</v>
+        <v>2.195509399283146E-18</v>
       </c>
       <c r="C132">
-        <v>0.0001252093343558696</v>
+        <v>0.0001258316686852098</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2263,10 +2263,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>0.9998943754951148</v>
+        <v>0.9998952495679044</v>
       </c>
       <c r="C133">
-        <v>0.9998591394988496</v>
+        <v>0.9998584393727291</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2274,10 +2274,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>0.0001056245048851349</v>
+        <v>0.000104750432095534</v>
       </c>
       <c r="C134">
-        <v>0.0001408605011503723</v>
+        <v>0.0001415606272708799</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2285,10 +2285,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>0.6036968576709828</v>
+        <v>0.604409993191225</v>
       </c>
       <c r="C135">
-        <v>0.377928724586419</v>
+        <v>0.3763782499960688</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2296,10 +2296,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>0.3963031423290172</v>
+        <v>0.3955900068087749</v>
       </c>
       <c r="C136">
-        <v>0.622071275413581</v>
+        <v>0.6236217500039312</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2307,10 +2307,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>0.1464747821494544</v>
+        <v>0.14596972712512</v>
       </c>
       <c r="C137">
-        <v>0.2794515831155182</v>
+        <v>0.2804158736650014</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2318,10 +2318,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>0.8535252178505456</v>
+        <v>0.85403027287488</v>
       </c>
       <c r="C138">
-        <v>0.7205484168844819</v>
+        <v>0.7195841263349986</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2329,10 +2329,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>0.1396091893319251</v>
+        <v>0.1395799507672971</v>
       </c>
       <c r="C139">
-        <v>0.09500258244252141</v>
+        <v>0.09479843339572519</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2340,10 +2340,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>0.391365196725639</v>
+        <v>0.3913214267008838</v>
       </c>
       <c r="C140">
-        <v>0.324354780648898</v>
+        <v>0.324048004781604</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2351,10 +2351,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>0.4690256139424371</v>
+        <v>0.4690986225318204</v>
       </c>
       <c r="C141">
-        <v>0.5806426369085798</v>
+        <v>0.5811535618226701</v>
       </c>
     </row>
   </sheetData>
